--- a/downloaded_files/CMPS101_Lecture-35418.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35418.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -136,24 +136,6 @@
   </x:si>
   <x:si>
     <x:t>abdelrahman haitham abbas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240091</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على احمد محمد محمود محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240334</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على تامر عبدالكريم منسى عبدالغفار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aly Tamer AbdelKareem Mansy Abdelghaffar</x:t>
   </x:si>
   <x:si>
     <x:t>1240093</x:t>
@@ -455,7 +437,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -755,7 +737,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1228,7 +1210,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1260,7 +1242,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1292,7 +1274,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45915.9672015856</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1324,7 +1306,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.6659986458</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1356,7 +1338,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.9672015856</x:v>
+        <x:v>45907.6650371528</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1388,7 +1370,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6659986458</x:v>
+        <x:v>45914.5873921644</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1420,7 +1402,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6650371528</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1452,7 +1434,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5873921644</x:v>
+        <x:v>45907.6700359144</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1484,7 +1466,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1516,7 +1498,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6700359144</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1548,7 +1530,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1580,7 +1562,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1612,7 +1594,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1644,7 +1626,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1676,7 +1658,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1708,7 +1690,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1736,11 +1718,9 @@
       <x:c r="C30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1763,16 +1743,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45907.6837621875</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1795,14 +1775,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45907.6772777778</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1834,7 +1816,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6837621875</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1866,7 +1848,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6772777778</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1884,70 +1866,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.6660113079</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1960,9 +1878,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Logic Design (CMPS101) Location : [3702]3702-60-الجيزة الرئيسي Time : Thursday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS101_Lecture-35418.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35418.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -109,15 +109,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد عبدالباسط احمد عبدالفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1230059</x:t>
@@ -437,7 +428,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -737,7 +728,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1114,7 +1105,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45915.977841088</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1146,7 +1137,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.977841088</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1178,7 +1169,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1210,7 +1201,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1242,7 +1233,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45915.9672015856</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1274,7 +1265,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9672015856</x:v>
+        <x:v>45907.6659986458</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1306,7 +1297,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6659986458</x:v>
+        <x:v>45907.6650371528</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1338,7 +1329,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6650371528</x:v>
+        <x:v>45914.5873921644</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1370,7 +1361,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.5873921644</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1402,7 +1393,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45907.6700359144</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1434,7 +1425,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6700359144</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1466,7 +1457,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1498,7 +1489,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1530,7 +1521,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1562,7 +1553,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1594,7 +1585,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1626,7 +1617,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1658,7 +1649,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1686,11 +1677,9 @@
       <x:c r="C29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1713,14 +1702,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45907.6837621875</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1752,7 +1743,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6837621875</x:v>
+        <x:v>45907.6772777778</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1784,7 +1775,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6772777778</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1816,7 +1807,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1833,38 +1824,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35418.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35418.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -100,15 +100,6 @@
   </x:si>
   <x:si>
     <x:t>Sama ayman nabil abd el satar ali maklad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن ثامر محمد الذهبي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
   </x:si>
   <x:si>
     <x:t>1230059</x:t>
@@ -428,7 +419,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -728,7 +719,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1073,7 +1064,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651413194</x:v>
+        <x:v>45915.977841088</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1105,7 +1096,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.977841088</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1137,7 +1128,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1169,7 +1160,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1201,7 +1192,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45915.9672015856</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1233,7 +1224,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.9672015856</x:v>
+        <x:v>45907.6659986458</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1265,7 +1256,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6659986458</x:v>
+        <x:v>45907.6650371528</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1297,7 +1288,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6650371528</x:v>
+        <x:v>45914.5873921644</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1329,7 +1320,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.5873921644</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1361,7 +1352,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45907.6700359144</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1393,7 +1384,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6700359144</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1425,7 +1416,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1457,7 +1448,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1489,7 +1480,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1521,7 +1512,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1553,7 +1544,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1585,7 +1576,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1617,7 +1608,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1645,11 +1636,9 @@
       <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1672,14 +1661,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45907.6837621875</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1711,7 +1702,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6837621875</x:v>
+        <x:v>45907.6772777778</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1743,7 +1734,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6772777778</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1775,7 +1766,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1792,38 +1783,6 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35418.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35418.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -39,6 +39,15 @@
     <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
   </x:si>
   <x:si>
+    <x:t>1240004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد حمدي احمد ابراهيم على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Hamdy Ahmed Ibrahim Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240005</x:t>
   </x:si>
   <x:si>
@@ -84,6 +93,15 @@
     <x:t>Rasha Hamdy Ahmed El Desouky</x:t>
   </x:si>
   <x:si>
+    <x:t>1240059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رهف عمرو شفيق فريد احمد خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rahaf amr shafik faried ahmed khafagy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240073</x:t>
   </x:si>
   <x:si>
@@ -165,6 +183,15 @@
     <x:t>Omar EL-syed Mohammed EL-kholy</x:t>
   </x:si>
   <x:si>
+    <x:t>1240101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ايهاب عبدالفتاح عيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ehab</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240114</x:t>
   </x:si>
   <x:si>
@@ -268,15 +295,6 @@
   </x:si>
   <x:si>
     <x:t>يحيى احمد فايز عبد الحليم نصار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد السيد احمد الشلقاني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
   </x:si>
   <x:si>
     <x:t>1240393</x:t>
@@ -419,7 +437,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -719,7 +737,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -808,7 +826,7 @@
       </x:c>
       <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="3">
-        <x:v>45907.6699618056</x:v>
+        <x:v>45927.5066766551</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -840,7 +858,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6661513542</x:v>
+        <x:v>45927.428415706</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -872,7 +890,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6677021181</x:v>
+        <x:v>45907.6661513542</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -904,7 +922,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6690027431</x:v>
+        <x:v>45907.6677021181</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -936,7 +954,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6662400463</x:v>
+        <x:v>45907.6690027431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -968,7 +986,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6662400463</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1000,7 +1018,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6698167824</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1032,7 +1050,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45927.4147170486</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1064,7 +1082,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.977841088</x:v>
+        <x:v>45907.6698167824</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1096,7 +1114,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1128,7 +1146,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45915.977841088</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1160,7 +1178,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1192,7 +1210,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.9672015856</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1224,7 +1242,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6659986458</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1256,7 +1274,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6650371528</x:v>
+        <x:v>45915.9672015856</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1288,7 +1306,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.5873921644</x:v>
+        <x:v>45907.6659986458</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1320,7 +1338,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45907.6650371528</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1352,7 +1370,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6700359144</x:v>
+        <x:v>45927.414653588</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1384,7 +1402,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45914.5873921644</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1416,7 +1434,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1448,7 +1466,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6700359144</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1480,7 +1498,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1512,7 +1530,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1544,7 +1562,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1576,7 +1594,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1608,7 +1626,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1636,9 +1654,11 @@
       <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1661,16 +1681,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6837621875</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1693,16 +1713,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6772777778</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1725,16 +1745,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1766,7 +1784,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6772777778</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1783,6 +1801,70 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.6660113079</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35418.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35418.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -226,6 +226,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ibrahim Elshenawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود احمد محمود احمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Ahmed Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240144</x:t>
@@ -437,7 +446,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -737,7 +746,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1530,7 +1539,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45928.6462246181</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1562,7 +1571,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1594,7 +1603,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1626,7 +1635,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1658,7 +1667,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1690,7 +1699,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1722,7 +1731,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1750,9 +1759,11 @@
       <x:c r="C31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1775,16 +1786,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
+      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45907.6772777778</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1816,7 +1825,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6772777778</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1848,7 +1857,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1866,6 +1875,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1878,6 +1919,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Logic Design (CMPS101) Location : [3702]3702-60-الجيزة الرئيسي Time : Thursday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS101_Lecture-35418.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35418.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -118,6 +118,15 @@
   </x:si>
   <x:si>
     <x:t>Sama ayman nabil abd el satar ali maklad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله عمرو شفيق فريد احمد خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Khafagy</x:t>
   </x:si>
   <x:si>
     <x:t>1230059</x:t>
@@ -446,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -746,7 +755,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1155,7 +1164,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.977841088</x:v>
+        <x:v>45928.8757069792</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1187,7 +1196,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45915.977841088</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1219,7 +1228,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9672015856</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6659986458</x:v>
+        <x:v>45915.9672015856</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6650371528</x:v>
+        <x:v>45907.6659986458</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.414653588</x:v>
+        <x:v>45907.6650371528</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.5873921644</x:v>
+        <x:v>45927.414653588</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45914.5873921644</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6700359144</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6700359144</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45928.6462246181</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45928.6462246181</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1603,7 +1612,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1635,7 +1644,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1667,7 +1676,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1699,7 +1708,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1731,7 +1740,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1763,7 +1772,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1791,9 +1800,11 @@
       <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s"/>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1816,16 +1827,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
+      <x:c r="D33" s="2" t="s"/>
       <x:c r="E33" s="3">
-        <x:v>45907.6772777778</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6772777778</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1906,6 +1915,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Lecture-35418.xlsx
+++ b/downloaded_files/CMPS101_Lecture-35418.xlsx
@@ -844,7 +844,7 @@
       </x:c>
       <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="3">
-        <x:v>45927.5066766551</x:v>
+        <x:v>45929.4079482639</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
